--- a/02_PublishedAnalysis/02_hypothesisbasedanalsysis/indic_abunds_lifeenv.xlsx
+++ b/02_PublishedAnalysis/02_hypothesisbasedanalsysis/indic_abunds_lifeenv.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/02_hypothesisbasedanalsysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA6614B-F63C-EE40-B388-9610739526AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95790FEE-84FF-B241-AAAA-E6327E52C9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="13740" xr2:uid="{6DCB4F37-366E-0447-AA65-C8C6D8FD07FB}"/>
+    <workbookView xWindow="6000" yWindow="460" windowWidth="25040" windowHeight="13740" xr2:uid="{6DCB4F37-366E-0447-AA65-C8C6D8FD07FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="indic_taxabunds_lifeenv" localSheetId="0">Sheet1!$A$1:$N$54</definedName>
+    <definedName name="indic_taxabunds_lifeenv" localSheetId="0">Sheet1!$A$1:$O$54</definedName>
+    <definedName name="indic_taxabunds_lifeenv" localSheetId="1">Sheet2!$A$1:$O$54</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,6 +38,28 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{31A519A5-224D-DD4B-AF76-4B25DFF4CAC9}" name="indic_taxabunds_lifeenv" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/02_hypothesisbasedanalsysis/indic_taxabunds_lifeenv.txt" space="1" consecutive="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{40EE7060-DE77-474B-82A8-F491DCAFEE18}" name="indic_taxabunds_lifeenv1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/02_hypothesisbasedanalsysis/indic_taxabunds_lifeenv.txt" space="1" consecutive="1">
       <textFields count="16">
         <textField/>
@@ -61,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>otu.names</t>
   </si>
@@ -130,6 +154,141 @@
   </si>
   <si>
     <t>life_relAbund</t>
+  </si>
+  <si>
+    <t>W_f</t>
+  </si>
+  <si>
+    <t>detected_wcrit</t>
+  </si>
+  <si>
+    <t>detected_0.9</t>
+  </si>
+  <si>
+    <t>detected_0.8</t>
+  </si>
+  <si>
+    <t>detected_0.7</t>
+  </si>
+  <si>
+    <t>detected_0.6</t>
+  </si>
+  <si>
+    <t>effSize_statcrit</t>
+  </si>
+  <si>
+    <t>effSize_0.9</t>
+  </si>
+  <si>
+    <t>effSize_0.8</t>
+  </si>
+  <si>
+    <t>effSize_0.7</t>
+  </si>
+  <si>
+    <t>effSize_0.6</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Myriangiales.Myriangiales_fam_Incertae_sedis.Endosporium.unidentifiedOTU_172</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Phaeosphaeriaceae.Neosetophoma.Neosetophoma_samararumOTU_272</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Capnodiales.Cladosporiaceae.Cladosporium.Cladosporium_delicatulumOTU_240</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Microbotryomycetes.unidentified.unidentified.unidentified.unidentifiedOTU_5584</t>
+  </si>
+  <si>
+    <t>Fungi.Rozellomycota.unidentified.unidentified.unidentified.unidentified.unidentifiedOTU_6740</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Venturiales.Venturiaceae.unidentified.unidentifiedOTU_75</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Helotiales.Helotiales_fam_Incertae_sedis.Volucrispora.Volucrispora_gramineaOTU_106</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Phaeosphaeriaceae.Sclerostagonospora.Sclerostagonospora_phragmiticolaOTU_12</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Venturiales.Venturiaceae.Venturia.Venturia_acerisOTU_290</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Agaricomycetes.Agaricales.Schizophyllaceae.Schizophyllum.Schizophyllum_communeOTU_7180</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Dothideales.Dothioraceae.Hormonema.Hormonema_macrosporumOTU_40</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Microbotryomycetes.NA.NA.NA.NAOTU_62</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Microbotryomycetes.Sporidiobolales.Sporidiobolaceae.Rhodosporidiobolus.Rhodosporidiobolus_colostriOTU_6281</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Dothideales.unidentified.unidentified.unidentifiedOTU_151</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Eurotiomycetes.Eurotiales.Aspergillaceae.Aspergillus.Aspergillus_subversicolorOTU_161</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Tremellomycetes.Cystofilobasidiales.Mrakiaceae.Mrakia.Mrakia_frigidaOTU_72</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Massarinaceae.Stagonospora.Stagonospora_perfectaOTU_71</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Tremellomycetes.Filobasidiales.Filobasidiaceae.Naganishia.Naganishia_albidaOTU_37</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Eurotiomycetes.Eurotiales.Aspergillaceae.Penicillium.Penicillium_bialowiezenseOTU_171</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Tremellomycetes.Cystofilobasidiales.Cystofilobasidiales_fam_Incertae_sedis.Mrakiella.Mrakiella_aquaticaOTU_156</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Capnodiales.NA.NA.NAOTU_6369</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.NA.NA.NA.NA.NAOTU_201</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Thelebolales.Thelebolaceae.unidentified.unidentifiedOTU_13</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Phaeosphaeriaceae.Phaeosphaeria.Phaeosphaeria_silenes.acaulisOTU_84</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Thelebolales.Pseudeurotiaceae.Pseudeurotium.NAOTU_30</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Saccharomycetes.Saccharomycetales.Saccharomycetaceae.Zygosaccharomyces.Zygosaccharomyces_rouxiiOTU_903</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Pleosporaceae.Alternaria.NAOTU_21</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Orbiliomycetes.Orbiliales.Orbiliaceae.Dactylaria.Dactylaria_dimorphosporaOTU_36</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Agaricomycetes.Thelephorales.Thelephoraceae.Tomentella.unidentifiedOTU_19</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Eurotiomycetes.Eurotiales.Aspergillaceae.Penicillium.NAOTU_95</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Phaeosphaeriaceae.Sclerostagonospora.Sclerostagonospora_phragmiticolaOTU_76</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Phaeosphaeriaceae.Phaeosphaeria.Phaeosphaeria_silenes.acaulisOTU_6105</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Eurotiomycetes.Eurotiales.Aspergillaceae.Penicillium.Penicillium_chrysogenumOTU_54</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Phaeosphaeriaceae.unidentified.unidentifiedOTU_11</t>
   </si>
 </sst>
 </file>
@@ -186,6 +345,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="indic_taxabunds_lifeenv" connectionId="1" xr16:uid="{3C37F23B-9BC2-964F-ADCA-634A90E1B9A6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="indic_taxabunds_lifeenv" connectionId="2" xr16:uid="{EA7A854B-FFAB-4C44-BBD4-5A8CA9552F52}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D57CA2-CC8A-2A46-B1CD-9F6D11C40955}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -495,17 +658,18 @@
   <cols>
     <col min="1" max="1" width="119" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,13 +677,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -527,13 +694,16 @@
         <v>51</v>
       </c>
       <c r="C2">
+        <v>22.32313757</v>
+      </c>
+      <c r="D2">
         <v>6.3821138211382104E-3</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -541,13 +711,16 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>30.78781004</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>3.60282471260455E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -555,13 +728,16 @@
         <v>49</v>
       </c>
       <c r="C4">
+        <v>11.47366699</v>
+      </c>
+      <c r="D4">
         <v>2.4987011059155299E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.19705387895686399</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -569,13 +745,16 @@
         <v>47</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>42.750944859999997</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -583,13 +762,16 @@
         <v>46</v>
       </c>
       <c r="C6">
+        <v>16.764901600000002</v>
+      </c>
+      <c r="D6">
         <v>2.0377438211846399E-2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -597,13 +779,16 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>15.167604770000001</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -611,13 +796,16 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>9.1698588989999994</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -625,13 +813,16 @@
         <v>39</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>21.604638959999999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -639,13 +830,16 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>18.675386660000001</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -653,13 +847,16 @@
         <v>35</v>
       </c>
       <c r="C11">
+        <v>4.5048770439999997</v>
+      </c>
+      <c r="D11">
         <v>5.7208237986270001E-4</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -667,13 +864,16 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5.973284542</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -681,13 +881,16 @@
         <v>34</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>11.399427080000001</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -695,13 +898,16 @@
         <v>33</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>12.560620330000001</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -709,13 +915,16 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>9.2677400639999998</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -723,13 +932,16 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>7.5048582499999998</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -737,13 +949,16 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8.5068343140000007</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -751,13 +966,16 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>7.8487844579999999</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -765,13 +983,16 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5.5834324349999997</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -779,13 +1000,2583 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>10.043269179999999</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF9D489-10F8-1248-AA59-56CA3F621096}">
+  <dimension ref="A1:O54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="C1:C1048576 B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="120.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>22.32313757</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3.6028246999999999E-2</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>30.78781004</v>
+      </c>
+      <c r="D3">
+        <v>6.3821140000000004E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>11.47366699</v>
+      </c>
+      <c r="D4">
+        <v>2.4987011E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.19705387899999999</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>42.750944859999997</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>16.764901600000002</v>
+      </c>
+      <c r="D6">
+        <v>2.0377438000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>15.167604770000001</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>9.1698588989999994</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>21.604638959999999</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>18.675386660000001</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>4.5048770439999997</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>5.973284542</v>
+      </c>
+      <c r="D12">
+        <v>5.7208200000000002E-4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>11.399427080000001</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>12.560620330000001</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>9.2677400639999998</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>7.5048582499999998</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>8.5068343140000007</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>7.8487844579999999</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>5.5834324349999997</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>10.043269179999999</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>6.7764235000000006E-2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>4.1702175759999998</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>0.14253774899999999</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>7.4826409999999999E-3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>6.2112791000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>1.3012348E-2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>1.6681996349999999</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>1.352189284</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>0.150413506</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>2.7602735740000002</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>4.4267796070000003</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>1.9601858999999999E-2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>1.20069162</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>0.463674682</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>4.0967524510000004</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>0.16531365100000001</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>0.44940327200000002</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>4.2166125670000003</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>2.3508236089999999</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>0.40366466200000001</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>0.81910311300000005</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>2.3895899940000001</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>0.55091065699999997</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>2.5923749090000001</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>1.488910231</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0.14908542999999999</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1.153706296</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0.40096432100000001</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>0.50047813100000005</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>2.063111379</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>5.7321196999999997E-2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>0.120278001</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0.34652909999999998</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.71855710900000003</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:P56">
+    <sortCondition descending="1" ref="B2:B56"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>